--- a/TestData/iAudit_Data_File.xlsx
+++ b/TestData/iAudit_Data_File.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TestName</t>
   </si>
@@ -26,6 +26,33 @@
   </si>
   <si>
     <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Enrolment Column Header</t>
+  </si>
+  <si>
+    <t>Audit From Date,Audit To Date,Audit Run Date,Sampling Method,Total Sample Count,Scheduling ID</t>
+  </si>
+  <si>
+    <t>Audit From Date</t>
+  </si>
+  <si>
+    <t>Audit To Date</t>
+  </si>
+  <si>
+    <t>Audit Run Date</t>
+  </si>
+  <si>
+    <t>Sampling Method</t>
+  </si>
+  <si>
+    <t>Total Sample Count</t>
+  </si>
+  <si>
+    <t>Scheduling ID</t>
+  </si>
+  <si>
+    <t>Simple Random Sampling</t>
   </si>
 </sst>
 </file>
@@ -82,10 +109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,231 +423,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42928</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43293</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43303</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/iAudit_Data_File.xlsx
+++ b/TestData/iAudit_Data_File.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment" sheetId="4" r:id="rId1"/>
+    <sheet name="Claim" sheetId="6" r:id="rId2"/>
+    <sheet name="ManualInquiry" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>TestName</t>
   </si>
@@ -53,12 +55,57 @@
   </si>
   <si>
     <t>Simple Random Sampling</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Audit From Date,Audit To Date,Audit Run Date,Sampling Method,Total Sample Count,S1,S2,S3,S4,S5</t>
+  </si>
+  <si>
+    <t>valueofS1</t>
+  </si>
+  <si>
+    <t>valueofS2</t>
+  </si>
+  <si>
+    <t>valueofS3</t>
+  </si>
+  <si>
+    <t>valueofS4</t>
+  </si>
+  <si>
+    <t>valueofS5</t>
+  </si>
+  <si>
+    <t>iAuditSampleScheduleRequestClaim</t>
+  </si>
+  <si>
+    <t>iAuditSampleScheduleRequestManualInquiry</t>
+  </si>
+  <si>
+    <t>Manual Inquiry</t>
+  </si>
+  <si>
+    <t>Audit From Date,Audit To Date,Audit Run Date,Sampling Method,Total Sample Count,Calls,Correspondence,Walk In,Chats</t>
+  </si>
+  <si>
+    <t>valueofCALLS</t>
+  </si>
+  <si>
+    <t>valueofCORRESPONDENCE</t>
+  </si>
+  <si>
+    <t>valueofWALKIN</t>
+  </si>
+  <si>
+    <t>valueofCHATS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,23 +472,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,7 +544,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -508,7 +555,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -519,7 +566,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -530,7 +577,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -541,7 +588,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -552,7 +599,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -563,7 +610,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -574,7 +621,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -585,7 +632,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -596,7 +643,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -607,7 +654,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -618,7 +665,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -629,7 +676,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -640,7 +687,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -651,7 +698,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -662,7 +709,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -673,7 +720,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -684,7 +731,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -697,5 +744,734 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42928</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43293</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43303</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42928</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43293</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43303</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>